--- a/static/documents/qti_portfolio.xlsx
+++ b/static/documents/qti_portfolio.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agasthya\Desktop\flask\static\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agasthya\Desktop\ASP\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE07CE-8C14-4204-B0F1-1626BA69A1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989179FD-9835-4A9C-A59B-81562664AB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Company Name</t>
   </si>
@@ -46,16 +59,37 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Consolidated Edision Inc</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>08/19/24</t>
-  </si>
-  <si>
     <t>Buy</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Lase Photonics Corp.</t>
+  </si>
+  <si>
+    <t>LASE</t>
+  </si>
+  <si>
+    <t>09/23/24</t>
+  </si>
+  <si>
+    <t>Neonade Inc.</t>
+  </si>
+  <si>
+    <t>NEON</t>
+  </si>
+  <si>
+    <t>09/17/24</t>
+  </si>
+  <si>
+    <t>Microstrategy Inc.</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>10/06/24</t>
   </si>
 </sst>
 </file>
@@ -65,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +110,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -99,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,18 +150,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -144,23 +165,14 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,21 +479,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -510,37 +522,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="4">
-        <v>100.1</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>18.41</v>
+      </c>
       <c r="F2" s="4">
-        <v>106</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>11.16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>175.98</v>
+      </c>
+      <c r="F4" s="4">
+        <v>170.34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/documents/qti_portfolio.xlsx
+++ b/static/documents/qti_portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agasthya\Desktop\ASP\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989179FD-9835-4A9C-A59B-81562664AB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807C285C-BBAE-4C7F-8C64-5AB599593A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Company Name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>Short</t>
   </si>
   <si>
@@ -83,13 +80,13 @@
     <t>09/17/24</t>
   </si>
   <si>
-    <t>Microstrategy Inc.</t>
-  </si>
-  <si>
-    <t>MSTR</t>
-  </si>
-  <si>
-    <t>10/06/24</t>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>10/11/24</t>
+  </si>
+  <si>
+    <t>BA</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,13 +521,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="4">
         <v>18.41</v>
@@ -539,18 +536,18 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>11.16</v>
@@ -559,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,19 +564,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="4">
-        <v>175.98</v>
+        <v>151.02000000000001</v>
       </c>
       <c r="F4" s="4">
-        <v>170.34</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/static/documents/qti_portfolio.xlsx
+++ b/static/documents/qti_portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agasthya\Desktop\ASP\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807C285C-BBAE-4C7F-8C64-5AB599593A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A3ED5-A939-4E11-B49C-60334DCF56F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Company Name</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>BA</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>GE Aerospace Inc.</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>10/21/24</t>
+  </si>
+  <si>
+    <t>Nike Inc.</t>
+  </si>
+  <si>
+    <t>NKE</t>
   </si>
 </sst>
 </file>
@@ -476,10 +494,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +597,46 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>193.68</v>
+      </c>
+      <c r="F5" s="4">
+        <v>187</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>82.61</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/static/documents/qti_portfolio.xlsx
+++ b/static/documents/qti_portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agasthya\Desktop\ASP\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A3ED5-A939-4E11-B49C-60334DCF56F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252C710-585C-41AD-BD1F-E22EEE689E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Company Name</t>
   </si>
@@ -89,15 +89,6 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>GE Aerospace Inc.</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>10/21/24</t>
   </si>
   <si>
@@ -105,6 +96,21 @@
   </si>
   <si>
     <t>NKE</t>
+  </si>
+  <si>
+    <t>Pfizer Inc.</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>10/18/24</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>10/10/24</t>
   </si>
 </sst>
 </file>
@@ -494,10 +500,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,22 +605,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>193.68</v>
+        <v>165.35</v>
       </c>
       <c r="F5" s="4">
-        <v>187</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -622,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4">
         <v>82.61</v>
@@ -634,7 +640,27 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>29.17</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/static/documents/qti_portfolio.xlsx
+++ b/static/documents/qti_portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agasthya\Desktop\ASP\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252C710-585C-41AD-BD1F-E22EEE689E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991130A0-25DE-4725-A31E-EE36CCAF8CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Company Name</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>10/10/24</t>
+  </si>
+  <si>
+    <t>DHR</t>
+  </si>
+  <si>
+    <t>Danaher Corp.</t>
+  </si>
+  <si>
+    <t>10/15/24</t>
   </si>
 </sst>
 </file>
@@ -500,10 +509,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,19 +637,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4">
-        <v>82.61</v>
+        <v>272.91000000000003</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -648,18 +657,38 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>82.61</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>29.17</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/static/documents/qti_portfolio.xlsx
+++ b/static/documents/qti_portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agasthya\Desktop\ASP\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991130A0-25DE-4725-A31E-EE36CCAF8CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80C150F-2CA3-43C3-AF30-F7D26FC6C73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Company Name</t>
   </si>
@@ -120,6 +120,36 @@
   </si>
   <si>
     <t>10/15/24</t>
+  </si>
+  <si>
+    <t>Cameco Corp.</t>
+  </si>
+  <si>
+    <t>CCJ</t>
+  </si>
+  <si>
+    <t>11/18/24</t>
+  </si>
+  <si>
+    <t>MIRA Pharma. Inc.</t>
+  </si>
+  <si>
+    <t>MIRA</t>
+  </si>
+  <si>
+    <t>10/31/24</t>
+  </si>
+  <si>
+    <t>JP Morgan</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>11/04/24</t>
+  </si>
+  <si>
+    <t>Buy</t>
   </si>
 </sst>
 </file>
@@ -509,10 +539,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +722,69 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4">
+        <v>219.78</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>53.59</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/static/documents/qti_portfolio.xlsx
+++ b/static/documents/qti_portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agasthya\Desktop\ASP\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80C150F-2CA3-43C3-AF30-F7D26FC6C73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CDDB2-9631-4F45-BF49-EB130B60227B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Company Name</t>
   </si>
@@ -80,15 +80,6 @@
     <t>09/17/24</t>
   </si>
   <si>
-    <t>Boeing</t>
-  </si>
-  <si>
-    <t>10/11/24</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>10/21/24</t>
   </si>
   <si>
@@ -120,15 +111,6 @@
   </si>
   <si>
     <t>10/15/24</t>
-  </si>
-  <si>
-    <t>Cameco Corp.</t>
-  </si>
-  <si>
-    <t>CCJ</t>
-  </si>
-  <si>
-    <t>11/18/24</t>
   </si>
   <si>
     <t>MIRA Pharma. Inc.</t>
@@ -539,10 +521,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,19 +609,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4">
-        <v>151.02000000000001</v>
+        <v>165.35</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -650,10 +632,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>165.35</v>
+        <v>272.91000000000003</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -667,19 +649,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
-        <v>272.91000000000003</v>
+        <v>82.61</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -687,19 +669,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4">
+        <v>29.17</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>82.61</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,83 +689,43 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
-        <v>29.17</v>
+        <v>2.19</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
-        <v>2.19</v>
+        <v>219.78</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
+      <c r="H9" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4">
-        <v>219.78</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4">
-        <v>53.59</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="6"/>
+      <c r="H10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
